--- a/progress_reports/tasks.xlsx
+++ b/progress_reports/tasks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="52">
   <si>
     <t>Status</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>Number</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -195,15 +204,250 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -216,12 +460,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:H35" totalsRowShown="0">
-  <autoFilter ref="A1:H35"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I35" totalsRowShown="0">
+  <autoFilter ref="A1:I35"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="Number"/>
-    <tableColumn id="2" name="Status" dataDxfId="0">
-      <calculatedColumnFormula>IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</calculatedColumnFormula>
+    <tableColumn id="10" name="Done"/>
+    <tableColumn id="2" name="Status" dataDxfId="24">
+      <calculatedColumnFormula>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Description"/>
     <tableColumn id="4" name="Type"/>
@@ -521,866 +766,945 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
       <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>40</v>
       </c>
-      <c r="B2" t="str">
-        <f>IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
+      <c r="C2" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
         <v>Ready</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>39</v>
       </c>
-      <c r="B3" t="str">
-        <f ca="1">IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C3" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>41</v>
       </c>
-      <c r="B4" t="str">
-        <f ca="1">IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C4" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D4" t="s">
         <v>45</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
-      <c r="B5" t="str">
-        <f>IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
+      <c r="C5" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
         <v>Ready</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" t="str">
-        <f>IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C6" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
       <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
-      <c r="B7" t="str">
-        <f>IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C7" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
       </c>
       <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
-      <c r="B8" t="str">
-        <f>IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C8" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>15</v>
       </c>
-      <c r="B9" t="str">
-        <f>IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
-        <v>Ready</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Done</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>16</v>
       </c>
-      <c r="B10" t="str">
-        <f>IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Done</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="str">
-        <f ca="1">IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C11" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
       </c>
       <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="str">
-        <f ca="1">IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C12" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12">
         <v>9</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13" t="str">
-        <f ca="1">IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C13" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Ready</v>
+      </c>
+      <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="str">
-        <f>IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C14" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14">
         <v>8</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="str">
-        <f ca="1">IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C15" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Ready</v>
+      </c>
+      <c r="D15" t="s">
         <v>20</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>8</v>
       </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>19</v>
       </c>
-      <c r="B16" t="str">
-        <f ca="1">IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="C16" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Ready</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>18</v>
       </c>
-      <c r="B17" t="str">
-        <f ca="1">IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C17" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="str">
-        <f ca="1">IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C18" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>8</v>
       </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
         <v>18</v>
       </c>
       <c r="H18">
+        <v>18</v>
+      </c>
+      <c r="I18">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>21</v>
       </c>
-      <c r="B19" t="str">
-        <f>IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
+      <c r="C19" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
         <v>Ready</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>22</v>
       </c>
-      <c r="B20" t="str">
-        <f>IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
+      <c r="C20" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
         <v>Ready</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>28</v>
       </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="str">
-        <f>IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="C21" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>8</v>
       </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21">
         <v>21</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24</v>
       </c>
-      <c r="B22" t="str">
-        <f>IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
+      <c r="C22" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
         <v>Ready</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>31</v>
       </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
       <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
         <v>30</v>
       </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
-      <c r="B23" t="str">
-        <f>IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="C23" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D23" t="s">
         <v>29</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>8</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>30</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>19</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>24</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>28</v>
       </c>
-      <c r="B24" t="str">
-        <f>IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
+      <c r="C24" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
         <v>Ready</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>34</v>
       </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
       <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
         <v>30</v>
       </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>26</v>
       </c>
-      <c r="B25" t="str">
-        <f ca="1">IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="C25" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D25" t="s">
         <v>32</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>8</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>30</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>19</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>27</v>
       </c>
-      <c r="B26" t="str">
-        <f>IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="C26" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D26" t="s">
         <v>33</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>8</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>30</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>19</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>28</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31</v>
       </c>
-      <c r="B27" t="str">
-        <f>IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
+      <c r="C27" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
         <v>Ready</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>36</v>
       </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
       <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
         <v>30</v>
       </c>
-      <c r="F27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32</v>
       </c>
-      <c r="B28" t="str">
-        <f>IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="C28" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D28" t="s">
         <v>37</v>
       </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
       <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
         <v>30</v>
       </c>
-      <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28">
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>33</v>
       </c>
-      <c r="B29" t="str">
-        <f>IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="C29" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D29" t="s">
         <v>38</v>
       </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
       <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
         <v>30</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>19</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>31</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
-      <c r="B30" t="str">
-        <f>IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="C30" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D30" t="s">
         <v>35</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>8</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>30</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>19</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>36</v>
       </c>
-      <c r="B31" t="str">
-        <f>IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
+      <c r="C31" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
         <v>Ready</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>41</v>
       </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
       <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
         <v>40</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>37</v>
       </c>
-      <c r="B32" t="str">
-        <f>IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="C32" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D32" t="s">
         <v>42</v>
       </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
       <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
         <v>40</v>
       </c>
-      <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32">
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>35</v>
       </c>
-      <c r="B33" t="str">
-        <f ca="1">IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="C33" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D33" t="s">
         <v>39</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>8</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>40</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>19</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>42</v>
       </c>
-      <c r="B34" t="str">
-        <f>IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="C34" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D34" t="s">
         <v>46</v>
       </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
       <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
         <v>40</v>
       </c>
-      <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34">
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>43</v>
       </c>
-      <c r="B35" t="str">
-        <f>IF(AND(IF(Table3[[#This Row],[Depends0]],LOOKUP(Table3[[#This Row],[Depends0]],Table3[Number],Table3[Status])="Done",TRUE), IF(Table3[[#This Row],[Depends1]],LOOKUP(Table3[[#This Row],[Depends1]],Table3[Number],Table3[Status])="Done",TRUE)), "Ready", "Blocked")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="C35" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D35" t="s">
         <v>47</v>
       </c>
-      <c r="D35" t="s">
-        <v>10</v>
-      </c>
       <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
         <v>40</v>
       </c>
-      <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35">
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35">
         <v>23</v>
       </c>
     </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1">
+        <f>COUNTA(B2:B21)/ROWS(B2:B21)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="1">
+        <f>COUNTA(B22:B30)/ROWS(B22:B30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1">
+        <f>COUNTA(B31:B35)/ROWS(B31:B35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="1">
+        <f>COUNTA(Table3[Done])/ROWS(Table3[Done])</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+      <formula>"Secondary"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+      <formula>"Primary"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>"Tertiary"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"Blocked"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"Ready"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:B40">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/progress_reports/tasks.xlsx
+++ b/progress_reports/tasks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="53">
   <si>
     <t>Status</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Poster</t>
   </si>
 </sst>
 </file>
@@ -204,21 +207,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="7">
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -234,18 +238,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -264,36 +261,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
@@ -301,153 +268,7 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -460,12 +281,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I35" totalsRowShown="0">
-  <autoFilter ref="A1:I35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I36" totalsRowShown="0">
+  <autoFilter ref="A1:I36"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Number"/>
     <tableColumn id="10" name="Done"/>
-    <tableColumn id="2" name="Status" dataDxfId="24">
+    <tableColumn id="2" name="Status" dataDxfId="6">
       <calculatedColumnFormula>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Description"/>
@@ -766,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -775,7 +596,7 @@
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="12" bestFit="1" customWidth="1"/>
@@ -1301,107 +1122,110 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>24</v>
-      </c>
-      <c r="C22" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Ready</v>
+        <v>44</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G22" t="s">
         <v>18</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>Ready</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
         <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23">
-        <v>24</v>
-      </c>
-      <c r="I23">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C24" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Ready</v>
+        <v>Blocked</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
         <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="H24">
+        <v>24</v>
+      </c>
+      <c r="I24">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C25" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>Ready</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
         <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
         <v>Blocked</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -1413,43 +1237,46 @@
         <v>19</v>
       </c>
       <c r="H26">
-        <v>28</v>
-      </c>
-      <c r="I26">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C27" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Ready</v>
+        <v>Blocked</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
         <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="H27">
+        <v>28</v>
+      </c>
+      <c r="I27">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>Ready</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
         <v>10</v>
@@ -1460,20 +1287,17 @@
       <c r="G28" t="s">
         <v>18</v>
       </c>
-      <c r="H28">
-        <v>26</v>
-      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
         <v>Blocked</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
@@ -1482,28 +1306,25 @@
         <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H29">
-        <v>31</v>
-      </c>
-      <c r="I29">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C30" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
         <v>Blocked</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
         <v>30</v>
@@ -1512,40 +1333,46 @@
         <v>19</v>
       </c>
       <c r="H30">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="I30">
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C31" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Ready</v>
+        <v>Blocked</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
         <v>19</v>
       </c>
+      <c r="H31">
+        <v>33</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>Ready</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
@@ -1554,70 +1381,67 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C33" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
         <v>Blocked</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
         <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H33">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C34" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
         <v>Blocked</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
         <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H34">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
         <v>Blocked</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
@@ -1632,66 +1456,90 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="1">
-        <f>COUNTA(B2:B21)/ROWS(B2:B21)</f>
-        <v>0.1</v>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>43</v>
+      </c>
+      <c r="C36" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36">
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B38" s="1">
-        <f>COUNTA(B22:B30)/ROWS(B22:B30)</f>
-        <v>0</v>
+        <f>COUNTA(B2:B22)/ROWS(B2:B22)</f>
+        <v>9.5238095238095233E-2</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B39" s="1">
-        <f>COUNTA(B31:B35)/ROWS(B31:B35)</f>
+        <f>COUNTA(B23:B31)/ROWS(B23:B31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1">
+        <f>COUNTA(B32:B36)/ROWS(B32:B36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B41" s="1">
         <f>COUNTA(Table3[Done])/ROWS(Table3[Done])</f>
-        <v>5.8823529411764705E-2</v>
+        <v>5.7142857142857141E-2</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"Tertiary"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Secondary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"Primary"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
-      <formula>"Tertiary"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Ready"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"Ready"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:B40">
+  <conditionalFormatting sqref="B38:B41">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/progress_reports/tasks.xlsx
+++ b/progress_reports/tasks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="52">
   <si>
     <t>Status</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>Design encryption mechanism</t>
-  </si>
-  <si>
-    <t>Design routing algorithm</t>
   </si>
   <si>
     <t>Create a smartphone UI</t>
@@ -281,8 +278,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I36" totalsRowShown="0">
-  <autoFilter ref="A1:I36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I35" totalsRowShown="0">
+  <autoFilter ref="A1:I35"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Number"/>
     <tableColumn id="10" name="Done"/>
@@ -587,16 +584,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="12" bestFit="1" customWidth="1"/>
@@ -604,10 +603,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -640,7 +639,7 @@
         <v>Ready</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -661,7 +660,7 @@
         <v>Blocked</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -685,7 +684,7 @@
         <v>Blocked</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -801,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
@@ -825,7 +824,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
@@ -1074,35 +1073,38 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Ready</v>
+        <v>Blocked</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
         <v>7</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
+      </c>
+      <c r="H20">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="C21" t="str">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
         <v>Blocked</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -1114,111 +1116,108 @@
         <v>18</v>
       </c>
       <c r="H21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I21">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>44</v>
-      </c>
-      <c r="C22" s="2" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>24</v>
+      </c>
+      <c r="C22" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Ready</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
         <v>18</v>
-      </c>
-      <c r="H22">
-        <v>20</v>
-      </c>
-      <c r="I22">
-        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="C23" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23">
         <v>24</v>
       </c>
-      <c r="C23" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Ready</v>
-      </c>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" t="s">
-        <v>18</v>
+      <c r="I23">
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C24" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>Ready</v>
       </c>
       <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
         <v>29</v>
       </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>30</v>
-      </c>
       <c r="G24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24">
-        <v>24</v>
-      </c>
-      <c r="I24">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Ready</v>
+        <v>Blocked</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="H25">
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
@@ -1231,49 +1230,46 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
         <v>19</v>
       </c>
       <c r="H26">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="I26">
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C27" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>Ready</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27">
-        <v>28</v>
-      </c>
-      <c r="I27">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Ready</v>
+        <v>Blocked</v>
       </c>
       <c r="D28" t="s">
         <v>36</v>
@@ -1282,15 +1278,18 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
         <v>18</v>
+      </c>
+      <c r="H28">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
@@ -1303,73 +1302,70 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H29">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="I29">
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C30" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
         <v>Blocked</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
         <v>19</v>
       </c>
       <c r="H30">
-        <v>31</v>
-      </c>
-      <c r="I30">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C31" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>Ready</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
         <v>19</v>
       </c>
-      <c r="H31">
-        <v>33</v>
-      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Ready</v>
+        <v>Blocked</v>
       </c>
       <c r="D32" t="s">
         <v>41</v>
@@ -1378,63 +1374,66 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H32">
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>35</v>
+      </c>
+      <c r="C33" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33">
         <v>37</v>
-      </c>
-      <c r="C33" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="D33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33">
-        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C34" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
         <v>Blocked</v>
       </c>
       <c r="D34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
         <v>39</v>
       </c>
-      <c r="E34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" t="s">
-        <v>40</v>
-      </c>
       <c r="G34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H34">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
@@ -1447,7 +1446,7 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
         <v>18</v>
@@ -1456,64 +1455,40 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>43</v>
-      </c>
-      <c r="C36" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="D36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36">
-        <v>23</v>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1">
+        <f>COUNTA(B2:B21)/ROWS(B2:B21)</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B38" s="1">
-        <f>COUNTA(B2:B22)/ROWS(B2:B22)</f>
-        <v>9.5238095238095233E-2</v>
+        <f>COUNTA(B22:B30)/ROWS(B22:B30)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1">
-        <f>COUNTA(B23:B31)/ROWS(B23:B31)</f>
+        <f>COUNTA(B31:B35)/ROWS(B31:B35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B40" s="1">
-        <f>COUNTA(B32:B36)/ROWS(B32:B36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="1">
         <f>COUNTA(Table3[Done])/ROWS(Table3[Done])</f>
-        <v>5.7142857142857141E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1539,7 +1514,7 @@
       <formula>"Blocked"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:B41">
+  <conditionalFormatting sqref="B37:B40">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/progress_reports/tasks.xlsx
+++ b/progress_reports/tasks.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndw\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="330" yWindow="465" windowWidth="19800" windowHeight="8880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="51">
   <si>
     <t>Status</t>
   </si>
@@ -76,9 +81,6 @@
     <t>Weeks</t>
   </si>
   <si>
-    <t>Create a core library to manage message storage and routing</t>
-  </si>
-  <si>
     <t>Set up repository</t>
   </si>
   <si>
@@ -91,9 +93,6 @@
     <t>implement epidemic routing</t>
   </si>
   <si>
-    <t>implement TTL</t>
-  </si>
-  <si>
     <t>Design a routing algorithm using user metadata to route messages while disguising message content and metadata</t>
   </si>
   <si>
@@ -112,9 +111,6 @@
     <t>Implement a more advanced routing algorithm</t>
   </si>
   <si>
-    <t>Design and implement a mechanism to decide whether a node is trustworthy or not</t>
-  </si>
-  <si>
     <t>design trust mechanism</t>
   </si>
   <si>
@@ -142,9 +138,6 @@
     <t>run simulation</t>
   </si>
   <si>
-    <t>get android tablet</t>
-  </si>
-  <si>
     <t>create DOER</t>
   </si>
   <si>
@@ -170,6 +163,15 @@
   </si>
   <si>
     <t>Poster</t>
+  </si>
+  <si>
+    <t>get android devices to test</t>
+  </si>
+  <si>
+    <t>implement buffer eviction</t>
+  </si>
+  <si>
+    <t>Implement a mechanism to decide whether a node is trustworthy or not</t>
   </si>
 </sst>
 </file>
@@ -273,13 +275,16 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I35" totalsRowShown="0">
-  <autoFilter ref="A1:I35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I34" totalsRowShown="0">
+  <autoFilter ref="A1:I34"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Number"/>
     <tableColumn id="10" name="Done"/>
@@ -340,7 +345,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,7 +380,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -584,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,10 +608,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -634,12 +639,15 @@
       <c r="A2">
         <v>40</v>
       </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
       <c r="C2" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Ready</v>
+        <v>Done</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -655,12 +663,15 @@
       <c r="A3">
         <v>39</v>
       </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
       <c r="C3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>Done</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -679,12 +690,15 @@
       <c r="A4">
         <v>41</v>
       </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
       <c r="C4" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>Done</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -703,9 +717,12 @@
       <c r="A5">
         <v>7</v>
       </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
       <c r="C5" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Ready</v>
+        <v>Done</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -724,9 +741,12 @@
       <c r="A6">
         <v>6</v>
       </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
       <c r="C6" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>Done</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -748,9 +768,12 @@
       <c r="A7">
         <v>8</v>
       </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
       <c r="C7" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>Done</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -775,9 +798,12 @@
       <c r="A8">
         <v>9</v>
       </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
       <c r="C8" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>Done</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -800,14 +826,14 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
         <v>Done</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -824,14 +850,14 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C10" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
         <v>Done</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -850,9 +876,12 @@
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
       <c r="C11" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>Done</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -877,9 +906,12 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
       <c r="C12" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>Done</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -904,9 +936,12 @@
       <c r="A13">
         <v>13</v>
       </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
       <c r="C13" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Ready</v>
+        <v>Done</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -930,7 +965,7 @@
       </c>
       <c r="C14" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>Ready</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -953,17 +988,20 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
       </c>
       <c r="C15" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Ready</v>
+        <v>Done</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -977,41 +1015,47 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Done</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16">
         <v>19</v>
-      </c>
-      <c r="C16" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Ready</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
       </c>
       <c r="C17" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>Done</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
         <v>7</v>
@@ -1020,67 +1064,73 @@
         <v>18</v>
       </c>
       <c r="H17">
+        <v>18</v>
+      </c>
+      <c r="I17">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
       </c>
       <c r="C18" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>Done</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
         <v>7</v>
       </c>
       <c r="G18" t="s">
         <v>18</v>
-      </c>
-      <c r="H18">
-        <v>18</v>
-      </c>
-      <c r="I18">
-        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Done</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19">
         <v>21</v>
-      </c>
-      <c r="C19" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Ready</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="C20" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Ready</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -1092,403 +1142,388 @@
         <v>18</v>
       </c>
       <c r="H20">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>44</v>
-      </c>
-      <c r="C21" s="2" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>24</v>
+      </c>
+      <c r="C21" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Ready</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
         <v>18</v>
-      </c>
-      <c r="H21">
-        <v>20</v>
-      </c>
-      <c r="I21">
-        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>23</v>
+      </c>
+      <c r="C22" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22">
         <v>24</v>
       </c>
-      <c r="C22" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Ready</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" t="s">
-        <v>18</v>
+      <c r="I22">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
       </c>
       <c r="C23" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>Done</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23">
-        <v>24</v>
-      </c>
-      <c r="I23">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
         <v>Ready</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="H24">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
         <v>Blocked</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s">
         <v>19</v>
       </c>
       <c r="H25">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="I25">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C26" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>Ready</v>
       </c>
       <c r="D26" t="s">
         <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26">
-        <v>28</v>
-      </c>
-      <c r="I26">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
       </c>
       <c r="C27" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Ready</v>
+        <v>Done</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G27" t="s">
         <v>18</v>
+      </c>
+      <c r="H27">
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>33</v>
+      </c>
+      <c r="C28" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28">
+        <v>31</v>
+      </c>
+      <c r="I28">
         <v>32</v>
-      </c>
-      <c r="C28" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="D28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28">
-        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C29" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
         <v>Blocked</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G29" t="s">
         <v>19</v>
       </c>
       <c r="H29">
-        <v>31</v>
-      </c>
-      <c r="I29">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C30" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>Ready</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
         <v>19</v>
       </c>
-      <c r="H30">
-        <v>33</v>
-      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>37</v>
+      </c>
+      <c r="C31" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
         <v>36</v>
       </c>
-      <c r="C31" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Ready</v>
-      </c>
-      <c r="D31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" t="s">
-        <v>39</v>
-      </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H31">
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>35</v>
+      </c>
+      <c r="C32" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Blocked</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32">
         <v>37</v>
-      </c>
-      <c r="C32" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="D32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32">
-        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C33" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
         <v>Blocked</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H33">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Done</v>
+      </c>
+      <c r="D34" t="s">
         <v>42</v>
       </c>
-      <c r="C34" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="D34" t="s">
-        <v>45</v>
-      </c>
       <c r="E34" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
         <v>18</v>
       </c>
       <c r="H34">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>43</v>
-      </c>
-      <c r="C35" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="D35" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35">
-        <v>23</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="1">
+        <f>COUNTA(B2:B20)/ROWS(B2:B20)</f>
+        <v>0.89473684210526316</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B37" s="1">
-        <f>COUNTA(B2:B21)/ROWS(B2:B21)</f>
-        <v>0.1</v>
+        <f>COUNTA(B21:B29)/ROWS(B21:B29)</f>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
-        <f>COUNTA(B22:B30)/ROWS(B22:B30)</f>
-        <v>0</v>
+        <f>COUNTA(B30:B34)/ROWS(B30:B34)</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B39" s="1">
-        <f>COUNTA(B31:B35)/ROWS(B31:B35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="1">
         <f>COUNTA(Table3[Done])/ROWS(Table3[Done])</f>
-        <v>5.8823529411764705E-2</v>
+        <v>0.60606060606060608</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1549,7 @@
       <formula>"Blocked"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:B40">
+  <conditionalFormatting sqref="B36:B39">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/progress_reports/tasks.xlsx
+++ b/progress_reports/tasks.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndw\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="51">
   <si>
     <t>Status</t>
   </si>
@@ -215,6 +210,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -266,9 +264,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -288,7 +283,7 @@
   <tableColumns count="9">
     <tableColumn id="1" name="Number"/>
     <tableColumn id="10" name="Done"/>
-    <tableColumn id="2" name="Status" dataDxfId="6">
+    <tableColumn id="2" name="Status" dataDxfId="0">
       <calculatedColumnFormula>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Description"/>
@@ -345,7 +340,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,7 +375,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -592,7 +587,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,9 +958,12 @@
       <c r="A14">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
       <c r="C14" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Ready</v>
+        <v>Done</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -1496,7 +1494,7 @@
       </c>
       <c r="B36" s="1">
         <f>COUNTA(B2:B20)/ROWS(B2:B20)</f>
-        <v>0.89473684210526316</v>
+        <v>0.94736842105263153</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1523,29 +1521,29 @@
       </c>
       <c r="B39" s="1">
         <f>COUNTA(Table3[Done])/ROWS(Table3[Done])</f>
-        <v>0.60606060606060608</v>
+        <v>0.63636363636363635</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"Tertiary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Secondary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"Primary"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Ready"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/progress_reports/tasks.xlsx
+++ b/progress_reports/tasks.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ndw.home.cs.st-andrews.ac.uk\ndw\hg\sh-proj\progress_reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="51">
   <si>
     <t>Status</t>
   </si>
@@ -340,7 +345,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,7 +380,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -587,7 +592,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,9 +1155,12 @@
       <c r="A21">
         <v>24</v>
       </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
       <c r="C21" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Ready</v>
+        <v>Done</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
@@ -1173,7 +1181,7 @@
       </c>
       <c r="C22" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>Ready</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
@@ -1189,9 +1197,6 @@
       </c>
       <c r="H22">
         <v>24</v>
-      </c>
-      <c r="I22">
-        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1503,7 +1508,7 @@
       </c>
       <c r="B37" s="1">
         <f>COUNTA(B21:B29)/ROWS(B21:B29)</f>
-        <v>0.22222222222222221</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1521,7 +1526,7 @@
       </c>
       <c r="B39" s="1">
         <f>COUNTA(Table3[Done])/ROWS(Table3[Done])</f>
-        <v>0.63636363636363635</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/progress_reports/tasks.xlsx
+++ b/progress_reports/tasks.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ndw.home.cs.st-andrews.ac.uk\ndw\hg\sh-proj\progress_reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20610" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="51">
   <si>
     <t>Status</t>
   </si>
@@ -345,7 +340,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,7 +375,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -591,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,9 +1174,12 @@
       <c r="A22">
         <v>23</v>
       </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
       <c r="C22" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Ready</v>
+        <v>Done</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
@@ -1446,9 +1444,12 @@
       <c r="A33">
         <v>42</v>
       </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
       <c r="C33" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>Done</v>
       </c>
       <c r="D33" t="s">
         <v>41</v>
@@ -1508,7 +1509,7 @@
       </c>
       <c r="B37" s="1">
         <f>COUNTA(B21:B29)/ROWS(B21:B29)</f>
-        <v>0.33333333333333331</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1517,7 +1518,7 @@
       </c>
       <c r="B38" s="1">
         <f>COUNTA(B30:B34)/ROWS(B30:B34)</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1526,7 +1527,7 @@
       </c>
       <c r="B39" s="1">
         <f>COUNTA(Table3[Done])/ROWS(Table3[Done])</f>
-        <v>0.66666666666666663</v>
+        <v>0.72727272727272729</v>
       </c>
     </row>
   </sheetData>

--- a/progress_reports/tasks.xlsx
+++ b/progress_reports/tasks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="46">
   <si>
     <t>Status</t>
   </si>
@@ -109,9 +109,6 @@
     <t>design trust mechanism</t>
   </si>
   <si>
-    <t>Evaluate the performance of the implemented routing algorithms</t>
-  </si>
-  <si>
     <t>Find users to participate</t>
   </si>
   <si>
@@ -121,18 +118,9 @@
     <t>obtain performance data</t>
   </si>
   <si>
-    <t>Compare the real world vs simulated performance of the routing algorithms</t>
-  </si>
-  <si>
     <t>Tertiary</t>
   </si>
   <si>
-    <t>set up simulation</t>
-  </si>
-  <si>
-    <t>run simulation</t>
-  </si>
-  <si>
     <t>create DOER</t>
   </si>
   <si>
@@ -164,9 +152,6 @@
   </si>
   <si>
     <t>implement buffer eviction</t>
-  </si>
-  <si>
-    <t>Implement a mechanism to decide whether a node is trustworthy or not</t>
   </si>
 </sst>
 </file>
@@ -210,9 +195,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -264,6 +246,9 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -278,12 +263,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I34" totalsRowShown="0">
-  <autoFilter ref="A1:I34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I29" totalsRowShown="0">
+  <autoFilter ref="A1:I29"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Number"/>
     <tableColumn id="10" name="Done"/>
-    <tableColumn id="2" name="Status" dataDxfId="0">
+    <tableColumn id="2" name="Status" dataDxfId="6">
       <calculatedColumnFormula>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Description"/>
@@ -584,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,10 +588,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -635,14 +620,14 @@
         <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C2" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
         <v>Done</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -659,14 +644,14 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C3" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
         <v>Done</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -686,14 +671,14 @@
         <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C4" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
         <v>Done</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -713,7 +698,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C5" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
@@ -737,7 +722,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
@@ -764,7 +749,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C7" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
@@ -794,7 +779,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C8" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
@@ -821,7 +806,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C9" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
@@ -845,7 +830,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C10" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
@@ -872,7 +857,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C11" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
@@ -902,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C12" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
@@ -932,7 +917,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C13" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
@@ -959,7 +944,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
@@ -989,7 +974,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C15" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
@@ -1016,14 +1001,14 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="str">
+        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
+        <v>Done</v>
+      </c>
+      <c r="D16" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Done</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -1043,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C17" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
@@ -1073,7 +1058,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C18" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
@@ -1097,7 +1082,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C19" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
@@ -1128,7 +1113,7 @@
         <v>Ready</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -1151,7 +1136,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C21" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
@@ -1175,7 +1160,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C22" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
@@ -1202,7 +1187,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C23" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
@@ -1247,38 +1232,38 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
       </c>
       <c r="C25" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>Done</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
         <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25">
-        <v>28</v>
-      </c>
-      <c r="I25">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
       </c>
       <c r="C26" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Ready</v>
+        <v>Done</v>
       </c>
       <c r="D26" t="s">
         <v>32</v>
@@ -1292,13 +1277,16 @@
       <c r="G26" t="s">
         <v>18</v>
       </c>
+      <c r="H26">
+        <v>19</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C27" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
@@ -1314,246 +1302,129 @@
         <v>27</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H27">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="I27">
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
       </c>
       <c r="C28" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>Done</v>
       </c>
       <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
         <v>34</v>
       </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
-        <v>27</v>
-      </c>
       <c r="G28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H28">
-        <v>31</v>
-      </c>
-      <c r="I28">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>30</v>
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
       </c>
       <c r="C29" t="str">
         <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
+        <v>Done</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H29">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>36</v>
-      </c>
-      <c r="C30" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Ready</v>
-      </c>
-      <c r="D30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>37</v>
-      </c>
-      <c r="C31" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="D31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>35</v>
-      </c>
-      <c r="C32" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Blocked</v>
-      </c>
-      <c r="D32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>42</v>
-      </c>
-      <c r="B33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Done</v>
-      </c>
-      <c r="D33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>43</v>
-      </c>
-      <c r="B34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" t="str">
-        <f>IF(ISBLANK(Table3[[#This Row],[Done]]),IF(AND(IF(ISBLANK(Table3[[#This Row],[Depends0]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends0]],Table3[Number],0))))),IF(ISBLANK(Table3[[#This Row],[Depends1]]),TRUE,NOT(ISBLANK(INDEX(Table3[Done],MATCH(Table3[[#This Row],[Depends1]],Table3[Number],0)))))),"Ready","Blocked"),"Done")</f>
-        <v>Done</v>
-      </c>
-      <c r="D34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="1">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1">
         <f>COUNTA(B2:B20)/ROWS(B2:B20)</f>
         <v>0.94736842105263153</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="1">
-        <f>COUNTA(B21:B29)/ROWS(B21:B29)</f>
-        <v>0.44444444444444442</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1">
-        <f>COUNTA(B30:B34)/ROWS(B30:B34)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="1">
+      <c r="B32" s="1">
+        <f>COUNTA(B21:B27)/ROWS(B21:B27)</f>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1">
+        <f>COUNTA(B28:B29)/ROWS(B28:B29)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="1">
         <f>COUNTA(Table3[Done])/ROWS(Table3[Done])</f>
-        <v>0.72727272727272729</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Tertiary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Secondary"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"Primary"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Ready"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:B39">
+  <conditionalFormatting sqref="B31:B34">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
